--- a/data/trans_dic/P43_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de capacidad laboral autopercibida &lt;=7</t>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 24,47</t>
+          <t>0,65; 6,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 23,39</t>
+          <t>2,46; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 17,97</t>
+          <t>1,8; 6,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,24; 32,24</t>
+          <t>2,91; 11,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 35,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 33,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 35,09</t>
+          <t>1,51; 7,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 31,93</t>
+          <t>3,27; 8,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,95</t>
+          <t>3,03; 7,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 24,87</t>
+          <t>4,3; 12,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 23,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 29,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 5,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 7,37</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 6,02</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 10,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 18,42</t>
+          <t>4,22; 9,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 17,56</t>
+          <t>6,05; 11,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 18,87</t>
+          <t>5,31; 11,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 19,47</t>
+          <t>8,46; 21,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 23,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 24,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 26,15</t>
+          <t>2,95; 7,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,73; 24,32</t>
+          <t>5,4; 10,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,19; 18,82</t>
+          <t>6,41; 10,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,07</t>
+          <t>8,45; 15,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,39; 19,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 7,81</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 9,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 16,36</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,34</t>
+          <t>6,27; 16,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,34</t>
+          <t>5,25; 11,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,62</t>
+          <t>5,87; 10,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,71</t>
+          <t>8,41; 19,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 19,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,39</t>
+          <t>7,09; 14,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 20,75</t>
+          <t>8,72; 14,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,64</t>
+          <t>7,68; 12,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,22</t>
+          <t>6,06; 11,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 16,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 13,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 11,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 10,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 14,09</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 17,36</t>
+          <t>5,39; 10,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,64</t>
+          <t>5,01; 10,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,62</t>
+          <t>4,31; 9,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,48</t>
+          <t>5,77; 10,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,85</t>
+          <t>4,14; 9,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 18,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 16,9</t>
+          <t>6,53; 12,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 16,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 9,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 9,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 10,21</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 9,21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 9,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 9,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 8,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 9,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 9,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 11,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 8,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 8,66</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 8,53</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 11,54</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24312</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29105</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14772</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35229</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43620</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45462</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>21805</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>59371</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>67932</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>74566</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2156; 20270</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12963; 40371</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12727; 43008</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13020; 51178</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6240; 30120</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20811; 53202</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27005; 65034</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26010; 74431</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10655; 40773</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41942; 85751</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>47864; 96266</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>48002; 114003</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59076</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101833</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125781</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>135733</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47978</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>90949</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>122532</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>123947</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>107054</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>192782</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>248313</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>259680</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38316; 86427</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>73060; 138417</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>86212; 179294</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90062; 226658</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28761; 69718</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66372; 123050</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96504; 154350</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>90750; 165972</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>78292; 147307</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>157326; 234691</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>200343; 310830</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>202673; 349920</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>69160</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66138</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>90573</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>100512</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>79363</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>105365</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>113355</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>76611</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>148524</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>171504</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>203928</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>177123</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44499; 119901</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44405; 93335</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63984; 119129</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>69724; 164959</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53682; 107110</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>81656; 137417</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88670; 143014</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53643; 102986</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>115168; 199474</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>138948; 209274</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>167894; 246322</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>136332; 241515</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64036</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>69934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>109984</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47600</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92409</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>217442</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>111636</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>162343</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76273; 144635</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42858; 93639</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46437; 105538</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>79688; 147582</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31437; 71037</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63376; 123300</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>174297; 266679</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>84632; 145905</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>123732; 209215</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>242727</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>256150</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>240666</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>335284</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>252097</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>279142</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>279507</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>338429</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>494824</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>520173</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>673713</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>196233; 310146</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>211338; 309419</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>193267; 308756</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>266620; 438698</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>207970; 307047</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>232731; 326181</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>237246; 329086</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>282624; 402187</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>423781; 568589</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>471369; 605874</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>449187; 594813</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>580865; 802404</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
